--- a/修論/本文0105/figure/fig_3_1_10QW_broadcontact_Jth.xlsx
+++ b/修論/本文0105/figure/fig_3_1_10QW_broadcontact_Jth.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\N\Documents\yakisaba\修論\本文\figure\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\N\Documents\yakisaba\修論\本文0105\figure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB8ABF9-F794-402E-A2A1-28BEF38780FB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD9DDF47-E2C4-403E-8BB1-1BDF485003A8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2475" yWindow="0" windowWidth="18270" windowHeight="7980" activeTab="1" xr2:uid="{29F3D329-8629-444F-A8FA-3AD40C72D46E}"/>
+    <workbookView xWindow="3510" yWindow="0" windowWidth="6660" windowHeight="255" activeTab="1" xr2:uid="{29F3D329-8629-444F-A8FA-3AD40C72D46E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>L500_slope</t>
     <phoneticPr fontId="1"/>
@@ -95,6 +95,26 @@
   </si>
   <si>
     <t>alpha_int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>ｱ</t>
+  </si>
+  <si>
+    <t>10QWL500</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3QWL500</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -465,7 +485,7 @@
   <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N17" sqref="N17:N23"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1002,10 +1022,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F1BF4A4-A247-40E2-A51F-61BAD6C8DE28}">
-  <dimension ref="D3:L9"/>
+  <dimension ref="D3:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1013,10 +1033,42 @@
     <col min="4" max="4" width="13.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="4:14" x14ac:dyDescent="0.4">
       <c r="L3" s="1"/>
     </row>
-    <row r="6" spans="4:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="4:14" x14ac:dyDescent="0.4">
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4">
+        <f>-0.000068602</f>
+        <v>-6.8602000000000005E-5</v>
+      </c>
+      <c r="L4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="1">
+        <v>6.2399999999999998E-7</v>
+      </c>
+    </row>
+    <row r="5" spans="4:14" x14ac:dyDescent="0.4">
+      <c r="I5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="1">
+        <v>2.1200000000000001E-9</v>
+      </c>
+    </row>
+    <row r="6" spans="4:14" x14ac:dyDescent="0.4">
       <c r="D6" t="s">
         <v>13</v>
       </c>
@@ -1024,15 +1076,23 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="4:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="4:14" x14ac:dyDescent="0.4">
       <c r="D7">
         <v>16.7</v>
       </c>
       <c r="E7">
         <v>1.06</v>
       </c>
-    </row>
-    <row r="8" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="J7">
+        <f>0.00000032325</f>
+        <v>3.2324999999999999E-7</v>
+      </c>
+      <c r="K7">
+        <f>J7*1000*1000*2</f>
+        <v>0.64649999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="4:14" x14ac:dyDescent="0.4">
       <c r="D8" t="s">
         <v>12</v>
       </c>
@@ -1040,7 +1100,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="4:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="4:14" x14ac:dyDescent="0.4">
       <c r="D9">
         <f>1/E7</f>
         <v>0.94339622641509424</v>
@@ -1048,6 +1108,43 @@
       <c r="E9">
         <f>D7*LN(1/0.32)*D9</f>
         <v>17.951464650231781</v>
+      </c>
+      <c r="I9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9">
+        <f>-0.076232</f>
+        <v>-7.6231999999999994E-2</v>
+      </c>
+      <c r="M9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N9">
+        <v>5.3799999999999996E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="4:14" x14ac:dyDescent="0.4">
+      <c r="K10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10">
+        <f>0.40989</f>
+        <v>0.40988999999999998</v>
+      </c>
+      <c r="M10" t="s">
+        <v>19</v>
+      </c>
+      <c r="N10">
+        <v>1.73E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="4:14" x14ac:dyDescent="0.4">
+      <c r="K11">
+        <f>L10*1000*1000</f>
+        <v>409890</v>
       </c>
     </row>
   </sheetData>
